--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/12_Balıkesir_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/12_Balıkesir_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27B0A02-ADC1-4464-BD29-EC08D91A2C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23C96ECF-B0F8-4856-88C9-EDD9C923B08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{78DA3BB1-DD10-49C9-9DF6-E80001E57A49}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{21C499F6-26F1-4DF3-81E9-120E3FA1FD66}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="103" r:id="rId1"/>
@@ -996,13 +996,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{558B524A-86B6-483A-A938-244E773A99E2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EB8A0D35-A46A-4553-9D89-B52ECDC76776}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0744913E-1746-4BCC-8F38-F954460AE414}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A44549EE-8C4C-4494-89E2-E5AFEBD0D4A5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D01257DF-4B05-442C-8EE4-7396DC394C92}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{224970F2-7047-42BB-B649-EBAC6F83C50A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5E7CDEDE-1A03-4359-9827-E60DAECF622B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{94378ED3-B234-4C7A-A709-2F0872A618E8}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{643B00D5-5D43-44C6-9575-972FA7D18A6C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1EA7E2BE-EC2A-4017-A24D-74FAE2D9138C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{844358EA-ACAA-41FB-A2A8-3576E8690670}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FD967412-8194-43F6-858C-D6EF8E9B9F3E}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C86625B2-9E5C-4270-A19F-705F63CB37CF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4AD39E9F-A04D-44DA-BB9F-372EBECD413B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1372,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDC527A-12FB-414F-A6BD-807A60372D73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1D4EF0-03C7-44D0-93C9-296162C95A1C}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2650,18 +2650,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{402C7770-476D-424C-88CB-98A7A086E5D8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B3B103F-974F-4DD1-B6EF-B95601997269}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{569EA39B-1B8D-4C6A-90F5-416B34F302C9}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{C2962D55-DF13-4082-A2D6-C6A2037B5901}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C49DC1B1-2AE1-4FF6-8277-929C225C9A9E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{644F9628-84D9-4A91-9644-08CDEACDC875}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1DAEEBBE-F967-4D76-BF08-164FF70E13D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D3549C8-9070-4336-83AC-A5C4A0A7AA09}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{210B5D0B-97FD-47C4-A4BC-4B813A0E3A57}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6A87DD0-6293-41BE-9D46-5FF551A9E8E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF0714FF-2B56-4033-925F-45F42CB53EC9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{351220D3-9A03-478C-A9EA-B4608C379902}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C132F6BE-7965-4B8A-9DEC-3BD0AC753EA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2961F57-8CF6-4C65-A96A-00D757E9D27F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F8416E68-DFF1-4DD8-A740-48C86EB47100}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{9FD4A72A-6136-4A1E-927B-A7E4CAAE6E28}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F71F37A4-E06B-424D-BAC0-9799576AC428}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E2215AC-466E-4D33-AAE8-6F29CA206783}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7620EDA-957B-49D4-BE5D-D6F241956E0E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACCD4781-F774-4A77-BE6B-4A1A0DC2119F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB32ED7C-2AAE-496C-B6D4-A3E4E493D1F3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42776E45-54A0-45A7-9C2B-8FBDA8F5DF09}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D257C74-8FCB-4D4D-A1E8-BE73CEA3CB6E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DCE6A50A-BFB2-4BE5-B401-FFFC255CC375}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2674,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2416B8D-997C-4255-BCA7-A19D8D501394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272DCC41-B502-4286-9287-60F9BCA7BC10}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3931,18 +3931,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E716FB8F-C1DF-4EF1-8F97-558EDE2F4C1F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACCF52FB-E639-41C2-8892-C030D4C8D473}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5A908663-31D6-440B-AD88-E6226EEED80F}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{9E033241-02DA-4F71-86E0-5459581006BE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A197FCE7-638E-4C94-BC7B-074B26F1D117}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C038D95E-CC3F-4BBC-A171-3D258BFA0735}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A85D9182-F3E6-4FFA-B3C9-017BA16DAE38}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC7C469E-6DD6-4357-8E7F-81771A72E560}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D890E346-FFFF-41D0-B7FF-381299EFD618}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{050CA401-CB62-4625-9646-B7A353C928AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CA8498F-8053-4037-BEF2-26AF3909ABD1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C937481C-846A-4F45-9873-4628B1C7392E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5E21210-9AE1-4CC5-A99C-FD70380D60BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10090AD7-4B91-4B76-A613-C107ACF820AB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2456DE21-A625-4D91-A2A0-1E41709DE210}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{778830BE-B359-4BEE-AFCC-934868B81203}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{270F13FC-B9CF-435A-BAA9-561A21A942AB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0FC22970-B654-438D-9C4E-D356528187FB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B9BE606-EAF9-40ED-9DFA-051D7613C36C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8F8152B-938C-4596-BED1-1BC03F789331}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98F36C54-BC40-457B-857B-A61C63D532E7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CBCADCA-0B88-4AD9-B6D5-243197031A91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FE87A60-343C-4823-8F7B-977A7AEDA4EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA79381A-2DEF-464C-A353-2843B1BEEB48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3955,7 +3955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB61E8F-61E3-43E1-9969-0981E28FBA4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05A65D9-3BAD-495D-82BF-26330C7B8E42}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5210,18 +5210,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B771BAD-FA83-451A-A132-6CE8D773DD8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4ADA3B86-D20D-4537-811F-5D7DCB0DE461}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{30205683-B164-4F56-8A60-FA54615ED459}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{A643C235-F3E4-4965-B560-5EFF096C5B43}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{891568E9-32D3-4A77-8D13-546CE3E562C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9718793-4BF3-4AF5-B546-C2C2D14C101D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56C79431-F408-4814-8EFE-D0FA62E9B09A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F7ED580-0797-462B-94E1-489B505D1CBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9594962B-6017-471B-8699-2A70EE5B424A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8028F68-C209-4F37-892E-F77845F88F83}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5252199A-3FB3-4EB3-AD59-01C8C4EC2CAC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50B5FF99-2D23-4DAA-BE8E-DA2DEDE4C632}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64DB96BB-C243-4CFC-A67B-FA7A48852696}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8D63202-5741-4F9F-B2BC-785843B7A02F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3575A49E-6400-4F0A-B453-E06D34AFA942}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{6DE07CCA-1E6B-42EA-BDC2-310202A66E36}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{98ECBFFA-A928-477D-A753-8341F6D65995}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66E885D4-C3E5-46B9-9710-35A4960DBCE0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D9DA89D-10B0-43BD-A10D-26E7C0B1D211}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB2E9CA2-E3AC-4089-94D9-C2EB52883B2C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46A57C7D-2997-4691-93BA-C855257E3945}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C72152FD-C394-4B8D-87AD-6BB7C31FA2B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4F7265E-365B-4DB9-867E-CD87F40DFE74}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{856A15A6-E690-4CD7-A963-C5E19196D915}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5234,7 +5234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AB2672-9642-46C0-A192-81590A3E4261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EC9D29-9295-439C-A596-CA4C45A9082E}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6478,18 +6478,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{372D0123-8E2F-425B-A736-CDE6A1D15E16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19F8F3D0-733A-42F0-B002-CE8FA0AA5AFA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C50DD54B-9F07-4DE5-A75A-FAA3DBF5928E}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{2AE9CFDC-3AF2-423F-8714-057D94C70C9E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{234120B7-5CE9-4F1B-8E27-4517276253D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB19C99C-A35D-4025-BF38-07F48201E62A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8946D5BD-5912-4FB5-A30E-D20DA7AF47E5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FAA62709-D118-4DE4-A761-9E4E99A45DF8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C193B424-FFDB-4ED2-9E8B-6293C293C436}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A513D99-A78B-452F-BF0A-619BDB74A4A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{149DD177-8E31-4B68-9A99-E19C70D87DF2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E261B10B-A2A9-489F-838B-370F99AB1667}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97B8B152-CE17-46FA-ADD8-92833FDCA71F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77FCD3D7-E4BA-4D97-98B1-2DEE6DB93648}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0680F8CB-18CA-4EC8-9BEF-40FF6B343BDC}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{F95ED8ED-6501-42D2-8B0F-077CC9DD0660}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7FC3A487-D3F5-4963-B381-73D6EB3400BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0BE39FA-6F4E-4325-938A-B744A465A3C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCACF087-E807-48F5-B28D-24418E33B087}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5AE4A0FF-EDC5-4282-80A9-DFD3CD5A2C1C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{088DA9B9-CF74-405D-AD59-12A5C6EA0B4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA01F534-1828-4558-8D07-F4274E801522}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9378486-2B9D-4DFD-B6AF-6124BA2208EF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1E1AB03-85B1-47AD-9CDB-9FA03CA8FD21}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6502,7 +6502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720374CA-FDF8-4118-ABCC-F8518DA22A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5562E1-1D53-47A7-9E8D-8CC34CB2D0BE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7771,18 +7771,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44A249B9-AC2A-48EE-BDCE-3E4B4EFEE14E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FA89C0C-DD8E-48BB-8577-870D78638B33}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{54E260E6-E422-4C43-9DF3-5C07A79615F9}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{59C3566F-AD64-4933-AE89-AB877BF84B05}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{27A09D39-A439-4B70-B82A-CDC7A745E3DF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B7A25AB-78C9-42A5-87C8-1F8B8D38AD14}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D71E7D0-6898-4C5E-A9A7-F1FA6199091B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3760EE1A-2749-41B7-9894-51B420B04AEB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A7BD74B-A619-47A2-8A26-1829DB320401}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9499D21-82D7-42C9-9205-945B4A618228}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4086427-D75C-4102-8660-35051976009F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{12F56AE9-E3BA-436C-904C-D530238E6E8B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA658284-3832-4831-9095-A51637BAC2D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7274B1E-1F7E-477F-B2FB-76EE79208276}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{91A28C4D-D489-4837-B3D9-AF8EF29D3DED}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{BD2330E0-9CCC-4136-B0B4-1556FD2E4567}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{88D65674-F362-4551-94AB-D26634B709C1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D19979F3-F85A-4C09-9AC3-CBE0A1CD65BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A50DEE6A-1699-45B3-9A04-FA2E0999498E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F0BEA9FD-218D-4979-82C4-3225EC077A66}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C394F8D7-7A83-4592-866B-640106BF3970}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABBEA65C-AAAF-4824-9CD3-EEAEA9AB5ADE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6E8651B-D2AC-462C-AA0E-3A1738BFBA9E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC6EB5BC-EBE7-4138-92F1-B93DF8D001C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7795,7 +7795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E849A2E-84BF-40DE-88EE-9FFBE4A965CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA98C711-5D4D-4002-8E04-0B8A86DCD1C5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9066,18 +9066,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05AE0590-8E8D-45A4-BBAC-69DFC2A7A964}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A63B2EFA-755B-4B50-83C8-CCAB0BE60405}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{882ADE63-0509-4EC2-B34B-B89CD689E13F}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{276A912A-B7CE-442D-AAA4-F9D48CD87A92}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{30AF3CE0-2CB5-4FD7-A40C-2EEEF4851C33}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5198BD34-5292-4B59-A9F9-7E0CB9783FF3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1647237D-3BD7-4A0F-9E69-911DA465F551}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B716F21-88CA-4806-9C6B-1A909018B9C3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BC808C3-9635-446E-BC1E-44D937E46DEC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4629CA19-30A1-4A5D-ADE8-B42865F7C780}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{682D66A6-288A-4FEB-85B4-DC896AFF4903}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81191212-A2F0-4F00-B503-FB70A883E8A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75F1548F-F346-4C81-ABC2-47A25C55E2EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2702AEA6-8AB3-41B0-9F71-7E04045D511E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E78D3546-D04A-4766-A4B8-1A2264C16A0B}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{EE6B751D-3F4E-4B18-A936-ED782F72F8E1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{96A4B28D-1909-4B6B-88CD-4F2BB9A294B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E7E24D1-9561-433F-94F3-006E444F348A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE8313D3-835D-4AED-8B46-7BD6902C126E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FEDC2B6A-C13B-490F-BA58-8BA5FDB4DD19}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{366F7D30-6ABF-4C93-8A84-29D425BB9979}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7C887F0-AE15-456F-BE09-F781A997EBE2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C378E74-7F71-428A-87FD-74FAB1AB297D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{416A70DD-9B76-4A8B-99A4-5FFC05827AEE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9090,7 +9090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842606C1-8603-4746-AA1A-386DB58E3C7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D1EFA6-B2C8-4BF9-8DB7-B68823CBE97D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10359,18 +10359,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DEB124A-FFD8-4E74-B086-82E6C4628A74}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B901963-F61E-4223-AEA8-BADF442556D7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{04C6FF66-ACAB-4028-864B-6863803800AC}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{3BB133AD-CE44-42C0-BDC8-9D8CCE2CD579}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{24DA37CD-4F0E-4287-BBAB-D022AC7AC24F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{971AB89D-E2A8-4D02-AD3D-389ABACA6F04}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E12AB0FB-2E2E-46F3-AA93-0FA834A1453F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35A62555-5C37-4EAC-87E2-124FBFE9FFC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC56A838-1EE3-43C9-8CD3-5BBBB99F963E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13BBFAC4-A25B-483E-8498-1914CCF37ED1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9123BED-88D6-4C2D-B6A9-BE1DC69243DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92EA61D5-018D-4677-90D2-7B92E401B6B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E77B8F4-CEB3-4AB2-A782-6373E5D0A65B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00657E53-3CAB-4B96-932F-1BA75C6A6629}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0DF8588E-E159-4C65-848C-29E26303B34B}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{2459A977-4ED1-4671-86DB-586CE545487C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2EC387A9-8F94-4472-B8B4-D51AAD15F061}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE279AF2-7B85-4BE8-8E0E-A915DD7FF700}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0FEE734-9204-4538-9260-37DF00574C1E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{310FC0FE-5195-4A74-80B8-E0030C8F03C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{728881FF-02EC-4DDA-924B-E5E4AD36A581}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1501A86-64BB-4A7C-98E4-5718541B594E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2579A992-DD05-4FC1-A657-343DA73A1E54}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37615AFE-2008-463A-88AD-A71B135ADEF8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10383,7 +10383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180F875E-4109-40C1-8FF5-1B5ECA666F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8848AC21-C3FC-41F4-A87D-EAF6E3569444}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11652,18 +11652,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA60FC34-ECC0-4698-8680-01AB7030B0F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BA36633-C6D2-4625-BBB0-B2EDED76EA44}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{115AB091-128F-4DEB-B55F-48CF399DFDE1}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{F10D3B74-280B-41E2-A30E-026A86FF5530}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{14D0872A-6192-4D6F-BAED-E2FFF927466C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35D73751-58E2-48E9-9D22-995D56D4D1F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03B17A36-CDEF-4F01-B534-5816C9699D61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB8AD0E2-D44C-47AD-87ED-6375FDD357B7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BEE3726-B14F-40A2-83D7-E36F9F5F312E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2CC30CC9-1F45-4839-8625-45D619C4B807}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{500BE162-CA49-4FC5-848D-7DEE2D9E9262}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E9150F9-F5B1-4C45-AB1E-088A8F1974EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00832F23-EA55-421D-AA48-9584C2F9D9F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10D1939C-6D95-4B82-8E6E-72EE2C8A6E8E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE6AA93D-6137-4B02-BBF5-52935FA7F9DF}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{7B075BC6-0553-4518-85F9-C32256C24BF3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F368739D-F80C-45F4-9C79-4B76D7DC3649}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C6D665D-2621-4667-A247-B8AE5A51A498}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4EEDF814-659D-4736-8E47-0A8C54DFB4F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{368D1914-60C2-4D47-942B-3C6BB80A13D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F736637-C945-43D9-AB4F-6099AC0C8648}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C4B4FF7-1869-48DD-B557-833C9B422483}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{128D81B3-5DA8-4429-8C43-BE22F5D789B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{475AD9D7-9954-46E3-8108-E6245C1499D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11676,7 +11676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01101F89-C868-464F-9DEA-2861C2FCB982}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9712466-1FF1-4023-899A-0DC776902BD9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12945,18 +12945,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{932FC6FC-D64A-4949-B8FE-1F9AD54A3EA0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7817CC6B-45BD-4ADF-842D-213F5D0ED333}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{22DB2B48-DE7C-4EFC-B1E8-02CB08E2A140}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{E34A011E-1A29-4CF1-A07F-1C8D7A113954}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F431A397-DBAA-43BC-A2C9-B527D574A112}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62BE8BA9-F793-4729-A288-B96885031090}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32972D43-C071-41BB-A98F-A2FDA53D97BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA91A3AB-E1B0-4542-AE1C-3D3B7B738873}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D8572B6-86F4-4BA8-9195-9A4E67ECCAA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96B06F19-DF84-4723-83B1-4C9C98E6573A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51A33601-6FE7-4803-BB50-6A045EBE442E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5744F0E-300E-4393-A2EC-3837D3FBA981}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8543C200-2DBA-44E2-A55E-D8324D192E6C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73229FF7-9272-49D1-9859-4788867499F8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0E05F173-B747-4B4F-85A5-0DDA31143746}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{8F689F25-7697-4F08-A94D-D0CA35FF656A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B50EDDF4-D074-4174-8D94-A28367B99A42}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67158D06-60D4-475F-B602-B7F1AA98E095}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1556991-24C5-4C9D-9A71-A99EC6A1D062}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D4BC005-B2EF-4A25-A237-9E3FC8E0714C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC71D971-6D18-44AF-9900-BB88BF72A99D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99B973D2-6648-477C-9A59-075778FC39DA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F83AFB51-659C-48C3-95AC-7D46EE26AF81}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7BBFAB23-5E21-4D50-B25E-38E807A4BBB5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12969,7 +12969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA862ADE-A382-4331-9326-535265480D6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12FCC5E-2A4A-44F2-8540-36CC90951BA3}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14238,18 +14238,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C1A56E8-063C-4CD9-B80C-7E301229C9AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89E40E1C-A123-4697-9904-CC1017AAF821}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1783B0A-B1DE-4F72-B0BD-FE3D4891CC4E}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{3B93A214-082A-4727-9085-6973FA27A579}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{260F1F3E-B8EA-4C53-8D8B-63DC8016D0E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5ACE1EDB-4C0B-4962-83E0-0C09529C8FC3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{349A8CD9-ACEC-4783-B4D0-D07640C883B9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53C6D30F-C15A-4F87-9E82-CDB79C103AF0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF52AEF3-6BFC-4948-8940-21F945A3434C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7186EAB8-E31A-442A-889B-87EB2F330B3C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{847D7644-1F05-4170-9651-A2759FAC5408}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9F97AA7-9E93-427E-B2F6-B7D6D76AD720}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E0C5328-9D36-4C82-AE57-B82A157ABF1B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{969AC0BE-9562-4A4D-B334-8CF0525DF755}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{03B0822F-97C3-445F-B5B6-4B583C9FF069}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{DB7E0C1D-3A2E-4794-ACF5-A60BD8B2BC23}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{18B019FF-E266-4F0E-93D8-5CD869C057C0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF42AD95-2653-4594-9E98-6665E4416B84}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F479376-FA98-4DDF-A8A9-87975E979AAD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{926A09BD-860D-4AF5-A7EB-CC387C9A4B1A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAD000DF-BCFF-4650-A37F-D7D51EC6CE42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1F11BC0-0EF9-4C83-96A0-AF80B9E5EDC9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{524266B0-743D-42DB-A09E-098D69953C9C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16C34D67-85E1-4547-955E-CAC2CECB29CE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14262,7 +14262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9344CC22-D741-4D3D-8CFF-3AB858E513C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF68EDE0-D2FB-4040-AB0F-6000F9ED08B0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15529,18 +15529,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F62C6BCE-2565-46E9-857C-3CB23BE59620}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{254218AD-0ACF-4ABB-BD40-498339D84445}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5DD09BC9-3F83-4B6A-BABF-EE5E30896104}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{FC28D38A-57C7-4F29-8E6A-EA8FCDEC20E6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D0B46324-3482-49AA-891B-73F423054C35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6592099-8DB7-44F5-9F14-9F88332FEAE4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9524B7F7-F0E7-4B21-B15D-A7B3933CBCF9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73BB48E7-563C-48F4-A61C-D587AA066594}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8EA39D3-44AF-4684-A60E-5860A148F746}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9B82C77-21BC-4EA0-9E86-744B91012FFE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2EB6B82-D9D7-4205-AAEC-4D7656D5CDB8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{05692DD3-D848-4616-A0EA-8077C236DEB0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2177F525-7D61-43E6-9C1E-A1C7D417A22A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60A4A83B-C360-4A2F-9933-E9A586841DE0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B2BDBB7E-4F49-49B6-B8DC-734AFF4CD4CC}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{BCB03E0D-FE18-48D0-96DD-B2C35F7B0183}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F05B0F8A-F2E0-4E4B-B999-CD3012316E1E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B966F280-B81B-44EA-922F-8B8112C868B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21B05AE6-983B-455A-8DE8-A4AD09E366DF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F2C1F81-98DF-43E2-AF2B-2E1935FBFDC8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D99DCC2-C6D9-4192-B6EC-091562D6CA70}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22E952D2-40A1-48A6-86F3-D9520DD38903}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D257B8D0-6289-453E-94A8-3FFFBDF8EBDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{269018CC-C2A9-4B59-80A5-3352663AD31F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15553,7 +15553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94882C8D-93EA-4C92-BE29-35CE507FCDFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317BEADB-5D46-49F5-9D9F-8203D0B814B2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16820,18 +16820,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10644366-8688-491A-9B77-7CB8200C4BE3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A96BFEF-FA67-4A1A-8CAD-7778A2D21D38}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C1C6B535-7EA8-41FF-AA49-54B47C7C8008}"/>
-    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{70F39E09-9D5F-453B-B817-C340054EFD85}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0998A166-47F1-489C-96BA-758A00441998}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85F080BA-C942-49DA-9CD8-42FC43D47F92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{069EA695-B6DB-4AD5-8EB7-874E1265004A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB8A3348-1BB5-4CF6-B97D-0F00E326EC90}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FD7B599-3D82-4BCB-8AE3-3245D2BB2322}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69FE4EC4-26AE-4DD4-8E89-F4C15E75484E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{930B7D81-FE89-42E6-B4F0-E1E0BFD39586}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52067CFC-3DD1-47A5-8A36-3B2E19EF97B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF474763-9612-4306-814C-3BBF6E9C2540}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91147F90-D578-4D87-934D-B9516050F4BC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{609727C7-4B8A-4425-A25B-B36AFE36FE73}"/>
+    <hyperlink ref="C5" location="' NİSAN'!A1" display="NİSAN" xr:uid="{626D382B-8AAA-47A6-B2CD-2CF81EC536B6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{49552602-1D88-4FCB-B666-1727057B8DEC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60B4858D-8C17-4FEC-89DA-5A2892876C7B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FD43647-AD71-41F0-B3AB-CC45F0F95704}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A830BB1C-3BA8-4CCB-83A7-12421379D224}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFE95C54-80D5-4E25-91B7-734A7865C7D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5CA69240-F403-4CD2-B4B2-CCD14B00C229}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C0D2C67-91EC-4D1E-B4AA-CFE49B0CF8D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C43E4651-E091-4926-971D-4B0BF4E36C76}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
